--- a/output/fit_clients/fit_round_23.xlsx
+++ b/output/fit_clients/fit_round_23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_mu</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_U</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -485,25 +510,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D2" t="n">
-        <v>11270466621.8674</v>
+        <v>11720397717.91432</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001351815838892293</v>
+        <v>0.004212508431506714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1103956288363372</v>
+        <v>0.1066046613836533</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03984752337200154</v>
+        <v>0.1015856589867848</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3004513273590079</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.253132714455287</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8.367649245617951</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7485155147423556</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.602661049229161</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +556,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="D3" t="n">
-        <v>6773797637.690228</v>
+        <v>6761641738.877316</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004891641142873002</v>
+        <v>0.004729482473230561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2146154236895262</v>
+        <v>0.2328211772813306</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3969750055537523</v>
+        <v>0.4062644823479613</v>
       </c>
       <c r="I3" t="n">
-        <v>2.909899095393351</v>
+        <v>7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9815629433035221</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5782035204087045</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.645202484834263</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.9154854461890184</v>
+      </c>
+      <c r="N3" t="n">
+        <v>14.6645064389461</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +602,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>8204169187.614318</v>
+        <v>10009885918.82161</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002660625459979935</v>
+        <v>0.004673846907399744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1810291933328447</v>
+        <v>0.1308401524873902</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2818858720532087</v>
+        <v>0.1600886279568124</v>
       </c>
       <c r="I4" t="n">
-        <v>2.972815832591045</v>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1290021809797127</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8.243518712142377</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7603592509711994</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.963666307281612</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +648,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>554</v>
+        <v>411</v>
       </c>
       <c r="D5" t="n">
-        <v>4836162458.764804</v>
+        <v>12102440802.46239</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004016583157079982</v>
+        <v>0.001223787715423529</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3000606518852623</v>
+        <v>0.08895472471808814</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6897681285202061</v>
+        <v>0.05897980905171572</v>
       </c>
       <c r="I5" t="n">
-        <v>2.90465603396021</v>
+        <v>8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9830832516654695</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.104438375690135</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.973353208307865</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.7426441105793476</v>
+      </c>
+      <c r="N5" t="n">
+        <v>11.87952900327909</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +694,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="D6" t="n">
-        <v>11021414476.72963</v>
+        <v>5756456809.251782</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004860331894281408</v>
+        <v>0.001582336081445277</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1109889418080368</v>
+        <v>0.2338880503430719</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04188061476339565</v>
+        <v>0.408839847598818</v>
       </c>
       <c r="I6" t="n">
-        <v>2.448509689276928</v>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2051108162877704</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.319627347450435</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.767362808628565</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7.027628825120864</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +740,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>449</v>
+        <v>612</v>
       </c>
       <c r="D7" t="n">
-        <v>6329854379.885568</v>
+        <v>11323479286.1412</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00476053254405719</v>
+        <v>0.001883725710957506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1858030279080862</v>
+        <v>0.1415701516725511</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2982442569896766</v>
+        <v>0.1859901789792754</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2369411665923492</v>
+        <v>11</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.9858683759420795</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.4106775893337145</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.857296379243059</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.8557690025039018</v>
+      </c>
+      <c r="N7" t="n">
+        <v>14.25808367083497</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +786,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>584</v>
+        <v>460</v>
       </c>
       <c r="D8" t="n">
-        <v>4790731161.529222</v>
+        <v>3473302955.265518</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002545926378417389</v>
+        <v>0.00141942319606712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3193090383121614</v>
+        <v>0.3469088114451248</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7557261146243162</v>
+        <v>0.6816649391730008</v>
       </c>
       <c r="I8" t="n">
-        <v>3.061947876954445</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1093358048275254</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8.223852335990189</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.7394719175488249</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.565586014986309</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +832,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="D9" t="n">
-        <v>10209625894.55861</v>
+        <v>10924823181.00756</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004667730463380518</v>
+        <v>0.003457409428442477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1139130044539482</v>
+        <v>0.1220403742843037</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05190043040347669</v>
+        <v>0.1388465103964665</v>
       </c>
       <c r="I9" t="n">
-        <v>2.327919276314681</v>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4145510261416697</v>
+      </c>
+      <c r="L9" t="n">
+        <v>8.529067557304334</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.7648786950469794</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.768506343635254</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +878,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="D10" t="n">
-        <v>5011406376.080794</v>
+        <v>6373266119.324093</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001195970560627643</v>
+        <v>0.002444318691671547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.289045142480109</v>
+        <v>0.2145401673804591</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6520215454996445</v>
+        <v>0.3621352608523611</v>
       </c>
       <c r="I10" t="n">
-        <v>2.899412972527069</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.08828996757149382</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8.202806498734159</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.7712987938926109</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.22316937911806</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +924,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="D11" t="n">
-        <v>4762429964.552421</v>
+        <v>10894424868.49911</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002341589887010742</v>
+        <v>0.003264219028667802</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2260546187582997</v>
+        <v>0.1392112780900697</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4361734221199307</v>
+        <v>0.1802960047861702</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2294773474700251</v>
+        <v>9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.9795234715936666</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3676851037768942</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.072523947497782</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.8653721256957406</v>
+      </c>
+      <c r="N11" t="n">
+        <v>14.23491856641703</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +970,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D12" t="n">
-        <v>4676749413.532916</v>
+        <v>6234362132.32954</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001210634708075548</v>
+        <v>0.001077080645217143</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2710824651693896</v>
+        <v>0.2041946734852761</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5904692681203133</v>
+        <v>0.3371618816978458</v>
       </c>
       <c r="I12" t="n">
-        <v>2.537641733640328</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1607638034554517</v>
+      </c>
+      <c r="L12" t="n">
+        <v>8.275280334618115</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.7532018504664352</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.788756674710589</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +1016,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="D13" t="n">
-        <v>9150835240.424891</v>
+        <v>13981490563.4637</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003799180704273011</v>
+        <v>0.004896683613022226</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1353943588151055</v>
+        <v>0.102478796770367</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.125510074403072</v>
+        <v>0.09162607828703945</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2733990027985073</v>
+        <v>6</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.9843462940575026</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.3004521528897559</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.613189654677669</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.8973379233438689</v>
+      </c>
+      <c r="N13" t="n">
+        <v>14.33356881219971</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +1062,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="D14" t="n">
-        <v>4407325697.280524</v>
+        <v>6030802951.462528</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002083211896376473</v>
+        <v>0.002813756704495657</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3143986637645136</v>
+        <v>0.2671161473795683</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.7388998514250738</v>
+        <v>0.4890504082818437</v>
       </c>
       <c r="I14" t="n">
-        <v>2.773579498131681</v>
+        <v>8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.3490706857661113</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.217985518383841</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.6162628295478846</v>
+      </c>
+      <c r="N14" t="n">
+        <v>9.10727107257385</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +1108,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>561</v>
+        <v>375</v>
       </c>
       <c r="D15" t="n">
-        <v>4395573947.725689</v>
+        <v>11282751469.32514</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003835257473186202</v>
+        <v>0.001760728831000593</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3343085129440995</v>
+        <v>0.08705954861015411</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8071244561476223</v>
+        <v>0.05440497173727371</v>
       </c>
       <c r="I15" t="n">
-        <v>2.941357463992198</v>
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1058441099141851</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5.843673775149645</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.6570305064833477</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7.296936354517308</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +1154,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="D16" t="n">
-        <v>6589207217.487067</v>
+        <v>12922041155.30877</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001409256946904231</v>
+        <v>0.004064863544109287</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2373238203603466</v>
+        <v>0.1031779340411907</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4747893261332403</v>
+        <v>0.09331375219823514</v>
       </c>
       <c r="I16" t="n">
-        <v>3.13010767558528</v>
+        <v>5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.5430529773554426</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.171975091000544</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.6478881107498131</v>
+      </c>
+      <c r="N16" t="n">
+        <v>8.785787123995718</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +1200,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>443</v>
+        <v>548</v>
       </c>
       <c r="D17" t="n">
-        <v>11748759168.13306</v>
+        <v>6994672174.532467</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002632533958853625</v>
+        <v>0.003703471732622985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.09876700623393507</v>
+        <v>0.2052170114885971</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.3396297420861153</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2593952922410196</v>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4100367184014016</v>
+      </c>
+      <c r="L17" t="n">
+        <v>8.524553249564066</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.7837775247314462</v>
+      </c>
+      <c r="N17" t="n">
+        <v>7.150997245064859</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +1246,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="D18" t="n">
-        <v>4355995768.636909</v>
+        <v>3679293472.383088</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002530237705619667</v>
+        <v>0.00268396840055083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2802196799153376</v>
+        <v>0.298297599318472</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6217795436871677</v>
+        <v>0.5643204949251803</v>
       </c>
       <c r="I18" t="n">
-        <v>2.443266627843787</v>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1607979897498079</v>
+      </c>
+      <c r="L18" t="n">
+        <v>8.275314520912472</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.7165289446519104</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6.055264372125736</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1292,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>9854179333.461985</v>
+        <v>11372919950.58654</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003725842327384357</v>
+        <v>0.004381170488033023</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1334391972688035</v>
+        <v>0.1151590801386459</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1188103690229853</v>
+        <v>0.1222354940917473</v>
       </c>
       <c r="I19" t="n">
-        <v>2.632016839436869</v>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5012376349196741</v>
+      </c>
+      <c r="L19" t="n">
+        <v>8.615754166082338</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.7603592509711994</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.591430853341651</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1338,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="D20" t="n">
-        <v>6297347685.806073</v>
+        <v>10010340133.76685</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002579420329773804</v>
+        <v>0.00339823203015052</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2433315145444216</v>
+        <v>0.1478426637080811</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4953757483258666</v>
+        <v>0.2011316331139579</v>
       </c>
       <c r="I20" t="n">
-        <v>3.067190938387586</v>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.74589236555726</v>
+      </c>
+      <c r="L20" t="n">
+        <v>8.860408896719925</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.7916925400978748</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6.973441905237571</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1384,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>540</v>
+        <v>377</v>
       </c>
       <c r="D21" t="n">
-        <v>9141827084.315969</v>
+        <v>11857894020.08694</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004981914292164171</v>
+        <v>0.002392255091252635</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1547251536212836</v>
+        <v>0.08327870263701009</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1917504473324878</v>
+        <v>0.04527824458738762</v>
       </c>
       <c r="I21" t="n">
-        <v>2.831253173896234</v>
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1255351042622175</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.192534068687776</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.3525798722242239</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.859063375796703</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1430,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="D22" t="n">
-        <v>7591625140.073091</v>
+        <v>13172956946.75528</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003435409090929079</v>
+        <v>0.004228785649608674</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1890801631422729</v>
+        <v>0.1201029933062751</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.30947393803638</v>
+        <v>0.1341697931492038</v>
       </c>
       <c r="I22" t="n">
-        <v>2.873197665361363</v>
+        <v>10</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3456865389672782</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.911721973923548</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.5048072808162368</v>
+      </c>
+      <c r="N22" t="n">
+        <v>7.184423642401189</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1476,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="D23" t="n">
-        <v>7068171702.6755</v>
+        <v>12459147571.18917</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003950282358147591</v>
+        <v>0.00442692559926159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1771417663108067</v>
+        <v>0.1131082051920423</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2685649187112701</v>
+        <v>0.1172848094594867</v>
       </c>
       <c r="I23" t="n">
-        <v>2.506183365041481</v>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4719053501680949</v>
+      </c>
+      <c r="L23" t="n">
+        <v>8.586421881330759</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.7790331173533072</v>
+      </c>
+      <c r="N23" t="n">
+        <v>6.994240465735384</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1522,40 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="D24" t="n">
-        <v>10073794906.95153</v>
+        <v>10966943696.7429</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002757449512240559</v>
+        <v>0.004152234714061027</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1365105963246326</v>
+        <v>0.1359023034323271</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1293350588204351</v>
+        <v>0.1723083456586572</v>
       </c>
       <c r="I24" t="n">
-        <v>2.752607252399116</v>
+        <v>5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.3335330986136804</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.962455212258782</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.6888573871740903</v>
+      </c>
+      <c r="N24" t="n">
+        <v>9.814692531223024</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1568,40 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D25" t="n">
-        <v>10076957317.96117</v>
+        <v>8239623990.347115</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003374091722585616</v>
+        <v>0.003735397575031725</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1312689841051778</v>
+        <v>0.1567255097456939</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1113737514013991</v>
+        <v>0.2225742712630922</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2545956654903913</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.332831625603894</v>
+      </c>
+      <c r="L25" t="n">
+        <v>8.447348156766559</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.7568002937857005</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6.68865771894745</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1614,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>418</v>
+        <v>591</v>
       </c>
       <c r="D26" t="n">
-        <v>8861451554.798788</v>
+        <v>14225749125.93809</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001619619687924144</v>
+        <v>0.003346233460880628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1235582018622074</v>
+        <v>0.1088209468826772</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0.08495139802829114</v>
+        <v>0.1069356344101473</v>
       </c>
       <c r="I26" t="n">
-        <v>2.19159967905301</v>
+        <v>13</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.9846423860629244</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.3516328267246098</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.602194782779007</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.7972800786004146</v>
+      </c>
+      <c r="N26" t="n">
+        <v>13.34340678922929</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1660,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="D27" t="n">
-        <v>8846603927.01173</v>
+        <v>8799400673.194407</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001976772246546785</v>
+        <v>0.00401423750995453</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1655142495448648</v>
+        <v>0.1747371198454381</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2287211846826584</v>
+        <v>0.2660531783855106</v>
       </c>
       <c r="I27" t="n">
-        <v>2.930871341125916</v>
+        <v>10</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.9841535662794892</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.3635356281304557</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.929571063086726</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.8548380184117299</v>
+      </c>
+      <c r="N27" t="n">
+        <v>14.16718930514787</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1706,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="D28" t="n">
-        <v>5655733843.265422</v>
+        <v>6333696857.555216</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004708951780596967</v>
+        <v>0.003820774004081493</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2037810887038788</v>
+        <v>0.2390400826010485</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3598492485899394</v>
+        <v>0.4212765332030354</v>
       </c>
       <c r="I28" t="n">
-        <v>2.306947030582116</v>
+        <v>8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.4054813749558649</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.274396207573595</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.5837622279595972</v>
+      </c>
+      <c r="N28" t="n">
+        <v>8.400848351618349</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1752,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="D29" t="n">
-        <v>4933705141.5141</v>
+        <v>5548278231.890893</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003648709149239378</v>
+        <v>0.004965611296417732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2766079753159282</v>
+        <v>0.2917631294507571</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.609403401786406</v>
+        <v>0.5485466908677267</v>
       </c>
       <c r="I29" t="n">
-        <v>2.731635006666551</v>
+        <v>11</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.3039302971158022</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.750549087025147</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.4530148729848218</v>
+      </c>
+      <c r="N29" t="n">
+        <v>6.30974837267129</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1798,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="D30" t="n">
-        <v>6652591681.54329</v>
+        <v>12596057598.34162</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003692672530015469</v>
+        <v>0.004754256667193547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2315189919551321</v>
+        <v>0.09919365803507443</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.4548980592604586</v>
+        <v>0.08369595759460495</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2593594925308298</v>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.08891684913212877</v>
+      </c>
+      <c r="L30" t="n">
+        <v>8.203433380294793</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.7485155147423556</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6.766876914552318</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1844,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="D31" t="n">
-        <v>3768858277.492177</v>
+        <v>9218757891.849701</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004953000027454639</v>
+        <v>0.00204219693722102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3905949949859995</v>
+        <v>0.1065513664122176</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0.101457008238722</v>
       </c>
       <c r="I31" t="n">
-        <v>2.946600525425339</v>
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.266000698078337</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.323258963659669</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.5766684877243978</v>
+      </c>
+      <c r="N31" t="n">
+        <v>7.210110790828288</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1890,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="D32" t="n">
-        <v>5615985942.555922</v>
+        <v>7351538947.413575</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002302539363220608</v>
+        <v>0.003322977913475706</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2089547110700082</v>
+        <v>0.141453080428263</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.3775775768022305</v>
+        <v>0.1857075762730808</v>
       </c>
       <c r="I32" t="n">
-        <v>2.348891522047245</v>
+        <v>8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1469596024844155</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3.015874435102146</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.2073235204451092</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.130595973800038</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1936,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="D33" t="n">
-        <v>7960982077.326046</v>
+        <v>13011602549.38999</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003042729667140085</v>
+        <v>0.003449276237456637</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1378629419510814</v>
+        <v>0.1044808588980252</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1339691092836268</v>
+        <v>0.09645893180872415</v>
       </c>
       <c r="I33" t="n">
-        <v>2.196842740486152</v>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1980929324883558</v>
+      </c>
+      <c r="L33" t="n">
+        <v>8.31260946365102</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7698282989279878</v>
+      </c>
+      <c r="N33" t="n">
+        <v>7.083956514908735</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1982,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>537</v>
+        <v>424</v>
       </c>
       <c r="D34" t="n">
-        <v>4436320542.264595</v>
+        <v>9227627113.159483</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00168172816104123</v>
+        <v>0.004010447019284172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3170673571937097</v>
+        <v>0.1203582834872193</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.7480445994686322</v>
+        <v>0.134786047776362</v>
       </c>
       <c r="I34" t="n">
-        <v>2.81552398959681</v>
+        <v>6</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.3228009004294777</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.635538402217391</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.5243393758863052</v>
+      </c>
+      <c r="N34" t="n">
+        <v>6.851249115508713</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +2028,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>474</v>
+        <v>611</v>
       </c>
       <c r="D35" t="n">
-        <v>9777879199.852427</v>
+        <v>6845582782.926659</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002295289182122432</v>
+        <v>0.00487487922544918</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1269795662865971</v>
+        <v>0.2337927011841304</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.09667530579676935</v>
+        <v>0.4086096806563369</v>
       </c>
       <c r="I35" t="n">
-        <v>0.2852699820003218</v>
+        <v>8</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.3187874922655944</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3.187702324883325</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.6129395311879421</v>
+      </c>
+      <c r="N35" t="n">
+        <v>9.071088298875516</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +2074,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="D36" t="n">
-        <v>6950444227.402021</v>
+        <v>11299845872.54043</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0016731837889433</v>
+        <v>0.004396834918372778</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2223512698522385</v>
+        <v>0.107326912568529</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.4234832448620956</v>
+        <v>0.1033291284496681</v>
       </c>
       <c r="I36" t="n">
-        <v>3.093406245553292</v>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1447429700792935</v>
+      </c>
+      <c r="L36" t="n">
+        <v>8.259259501241958</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7410866237452078</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6.562472973662198</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +2120,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="D37" t="n">
-        <v>10944774801.76291</v>
+        <v>10940265728.50073</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003464404985076307</v>
+        <v>0.003463822825190348</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1098515073883788</v>
+        <v>0.09050323315462001</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.03798299540028374</v>
+        <v>0.06271781215734626</v>
       </c>
       <c r="I37" t="n">
-        <v>2.406565197811799</v>
+        <v>6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.2619616085761116</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.574699110364025</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.4603556352983921</v>
+      </c>
+      <c r="N37" t="n">
+        <v>5.632413595603817</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +2166,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="D38" t="n">
-        <v>8412872981.143465</v>
+        <v>11138972540.55665</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001880144056847697</v>
+        <v>0.002473299080977689</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1273441917405945</v>
+        <v>0.1131097671183448</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.09792475913247112</v>
+        <v>0.1172885798524866</v>
       </c>
       <c r="I38" t="n">
-        <v>2.14441212615474</v>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.185263249270528</v>
+      </c>
+      <c r="L38" t="n">
+        <v>8.299779780433193</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.7506067616241994</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6.712355452050796</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +2212,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="D39" t="n">
-        <v>9846864985.294333</v>
+        <v>11220831836.33806</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003428804882655717</v>
+        <v>0.003401184631037176</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1183755999235079</v>
+        <v>0.1337610697577146</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.06719229972911253</v>
+        <v>0.1671395406739662</v>
       </c>
       <c r="I39" t="n">
-        <v>0.2735869562059489</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8796055806886142</v>
+      </c>
+      <c r="L39" t="n">
+        <v>8.994122111851278</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.7953542027790327</v>
+      </c>
+      <c r="N39" t="n">
+        <v>6.912961943729377</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +2258,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D40" t="n">
-        <v>4285493600.716216</v>
+        <v>11230521208.89254</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003944419583593229</v>
+        <v>0.002234513778143185</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3251703560511928</v>
+        <v>0.1238496472361997</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.7758109521482834</v>
+        <v>0.1432139828322433</v>
       </c>
       <c r="I40" t="n">
-        <v>2.789308682431104</v>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.4009578770091899</v>
+      </c>
+      <c r="L40" t="n">
+        <v>8.515474408171855</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7756714803551727</v>
+      </c>
+      <c r="N40" t="n">
+        <v>6.997955198931599</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +2304,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D41" t="n">
-        <v>5882314948.728957</v>
+        <v>13836104334.01878</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001532106934649001</v>
+        <v>0.00219550369589986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2177512970938034</v>
+        <v>0.084813376053746</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4077206280613364</v>
+        <v>0.04898285081525909</v>
       </c>
       <c r="I41" t="n">
-        <v>2.563857040806034</v>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2505881178236177</v>
+      </c>
+      <c r="L41" t="n">
+        <v>8.365104648986282</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.7329293543697245</v>
+      </c>
+      <c r="N41" t="n">
+        <v>6.293482438408208</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +2350,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="D42" t="n">
-        <v>9302368697.77165</v>
+        <v>7287155386.242519</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001144279356828981</v>
+        <v>0.004753020793672395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1309361507345727</v>
+        <v>0.1552837040000976</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.1102332392386407</v>
+        <v>0.2190938418204049</v>
       </c>
       <c r="I42" t="n">
-        <v>0.2752328380940473</v>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.2019701943007429</v>
+      </c>
+      <c r="L42" t="n">
+        <v>8.316486725463408</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.7239881613229688</v>
+      </c>
+      <c r="N42" t="n">
+        <v>6.163276500995968</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +2396,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>487</v>
+        <v>378</v>
       </c>
       <c r="D43" t="n">
-        <v>5064575649.944392</v>
+        <v>3256383434.137134</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004111428154496694</v>
+        <v>0.003894510149731226</v>
       </c>
       <c r="F43" t="n">
-        <v>0.251875580141449</v>
+        <v>0.304057995634154</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5246534938689317</v>
+        <v>0.5782257335468746</v>
       </c>
       <c r="I43" t="n">
-        <v>2.553370917939751</v>
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.1276158596907264</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4.812534163301159</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.6223181091830047</v>
+      </c>
+      <c r="N43" t="n">
+        <v>7.633828020358935</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +2442,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="D44" t="n">
-        <v>6479813545.098055</v>
+        <v>6882909683.156257</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001635809515497397</v>
+        <v>0.00239899485333726</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2324371279385645</v>
+        <v>0.2241523978987499</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4580442139091562</v>
+        <v>0.3853385877970175</v>
       </c>
       <c r="I44" t="n">
-        <v>3.014760324056175</v>
+        <v>14</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.9865708557482817</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.3232437415587913</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2.491939507196223</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.7735854747288907</v>
+      </c>
+      <c r="N44" t="n">
+        <v>12.97976998738159</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +2488,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>598</v>
+        <v>376</v>
       </c>
       <c r="D45" t="n">
-        <v>8121954673.378194</v>
+        <v>15264487440.75974</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001034802239271949</v>
+        <v>0.001818596851300997</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1928593895179279</v>
+        <v>0.06452169742497296</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.3224241228072652</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>3.135350737018422</v>
+        <v>4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.2340962035540965</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4.291354469135428</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.5776305929686336</v>
+      </c>
+      <c r="N45" t="n">
+        <v>7.261257390237243</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +2534,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>410</v>
+        <v>594</v>
       </c>
       <c r="D46" t="n">
-        <v>8140154213.306412</v>
+        <v>11818453917.24952</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002323942061119299</v>
+        <v>0.001716169518917231</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1319323776746703</v>
+        <v>0.1316515401163492</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1136469863036761</v>
+        <v>0.1620472672547111</v>
       </c>
       <c r="I46" t="n">
-        <v>2.149655187587881</v>
+        <v>8</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.9843768500613168</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.3684989802639024</v>
+      </c>
+      <c r="L46" t="n">
+        <v>3.237413812881632</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.8955463499242816</v>
+      </c>
+      <c r="N46" t="n">
+        <v>14.673513185604</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +2580,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="D47" t="n">
-        <v>7865701241.077826</v>
+        <v>4678056976.754569</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004545676530028684</v>
+        <v>0.003104837579760703</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1581817325456297</v>
+        <v>0.234611167724899</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.2035950237870194</v>
+        <v>0.4105854080072964</v>
       </c>
       <c r="I47" t="n">
-        <v>2.490454180742057</v>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2483044215716604</v>
+      </c>
+      <c r="L47" t="n">
+        <v>8.362820952734324</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.7165289446519104</v>
+      </c>
+      <c r="N47" t="n">
+        <v>5.967757940303883</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +2626,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D48" t="n">
-        <v>5070660479.013251</v>
+        <v>10328638582.02429</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004913119409870457</v>
+        <v>0.004633460584861609</v>
       </c>
       <c r="F48" t="n">
-        <v>0.3021979397638931</v>
+        <v>0.1478514673422434</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.6970919218539793</v>
+        <v>0.2011528845395641</v>
       </c>
       <c r="I48" t="n">
-        <v>3.067190938387586</v>
+        <v>7</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.2355863984966745</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3.302585362922233</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.6298493339655897</v>
+      </c>
+      <c r="N48" t="n">
+        <v>9.29440131638956</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +2672,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D49" t="n">
-        <v>6791333651.832384</v>
+        <v>9297621963.048922</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003272627013291664</v>
+        <v>0.001218675383278662</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1697062254759097</v>
+        <v>0.1214242840251796</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.2430857284982498</v>
+        <v>0.1373593068090501</v>
       </c>
       <c r="I49" t="n">
-        <v>2.306947030582116</v>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3392114087631368</v>
+      </c>
+      <c r="L49" t="n">
+        <v>8.4537279399258</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.7234207221580239</v>
+      </c>
+      <c r="N49" t="n">
+        <v>6.014686503234678</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +2718,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D50" t="n">
-        <v>10284430184.05399</v>
+        <v>13033588567.63939</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004131512628833012</v>
+        <v>0.003098710838858551</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1347335034806753</v>
+        <v>0.1047065574394736</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.123245537210268</v>
+        <v>0.09700375405764904</v>
       </c>
       <c r="I50" t="n">
-        <v>2.773579498131681</v>
+        <v>7</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.9798959171039363</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.2973181068866729</v>
+      </c>
+      <c r="L50" t="n">
+        <v>3.364317071312232</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.8595425377632555</v>
+      </c>
+      <c r="N50" t="n">
+        <v>13.82653368395288</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2764,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="D51" t="n">
-        <v>9361171913.040556</v>
+        <v>10786726903.02197</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002903440489956149</v>
+        <v>0.003893258485698142</v>
       </c>
       <c r="F51" t="n">
-        <v>0.133471433022126</v>
+        <v>0.1248169599642693</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.1189208305090834</v>
+        <v>0.1455490156265999</v>
       </c>
       <c r="I51" t="n">
-        <v>2.50094030360834</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1070122309302951</v>
+      </c>
+      <c r="L51" t="n">
+        <v>8.221528762092959</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.767362808628565</v>
+      </c>
+      <c r="N51" t="n">
+        <v>7.125727410478341</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2810,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>535</v>
+        <v>428</v>
       </c>
       <c r="D52" t="n">
-        <v>10211142054.43658</v>
+        <v>6826102545.539602</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0032647394106087</v>
+        <v>0.002978364556538109</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1372396586521999</v>
+        <v>0.1642370463263202</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1318333192877911</v>
+        <v>0.2407066536279724</v>
       </c>
       <c r="I52" t="n">
-        <v>2.805037866730528</v>
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.5331232883015293</v>
+      </c>
+      <c r="L52" t="n">
+        <v>6.270952953536989</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.6924337633662989</v>
+      </c>
+      <c r="N52" t="n">
+        <v>7.577722313788989</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2856,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="D53" t="n">
-        <v>7044946623.98501</v>
+        <v>12282044286.34933</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001614771459233107</v>
+        <v>0.004748837903182749</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1691740922411474</v>
+        <v>0.1126064918636675</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.241262280250404</v>
+        <v>0.1160737046728693</v>
       </c>
       <c r="I53" t="n">
-        <v>2.385592952079234</v>
+        <v>7</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.2064432452647268</v>
+      </c>
+      <c r="L53" t="n">
+        <v>3.273442209690286</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.5827142569728598</v>
+      </c>
+      <c r="N53" t="n">
+        <v>8.380842929766912</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2902,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="D54" t="n">
-        <v>9474870573.927397</v>
+        <v>5666626933.788844</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004702064893980365</v>
+        <v>0.003825806088110311</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1528804703661063</v>
+        <v>0.2810471094371403</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1854293152742993</v>
+        <v>0.5226788846963819</v>
       </c>
       <c r="I54" t="n">
-        <v>2.899412972527069</v>
+        <v>8</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.2719246260592891</v>
+      </c>
+      <c r="L54" t="n">
+        <v>3.140839458677019</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.610419184570397</v>
+      </c>
+      <c r="N54" t="n">
+        <v>9.067544232730921</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2948,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>567</v>
+        <v>505</v>
       </c>
       <c r="D55" t="n">
-        <v>5511121761.0194</v>
+        <v>9140280269.134783</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001483566800546472</v>
+        <v>0.001561774962723762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2694903495881538</v>
+        <v>0.1447211585477143</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.5850136036789275</v>
+        <v>0.1935965136994162</v>
       </c>
       <c r="I55" t="n">
-        <v>2.972815832591045</v>
+        <v>8</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.9827944889347345</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.3004780897265284</v>
+      </c>
+      <c r="L55" t="n">
+        <v>3.169392922344259</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.8289232826578802</v>
+      </c>
+      <c r="N55" t="n">
+        <v>13.40907273081335</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2994,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>586</v>
+        <v>478</v>
       </c>
       <c r="D56" t="n">
-        <v>8689800851.301718</v>
+        <v>5837991118.538616</v>
       </c>
       <c r="E56" t="n">
-        <v>0.001146718870240128</v>
+        <v>0.004915031371577813</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1766395532263625</v>
+        <v>0.2144690518668383</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2668439971280053</v>
+        <v>0.3619635924232447</v>
       </c>
       <c r="I56" t="n">
-        <v>3.072433999820728</v>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2706123341327289</v>
+      </c>
+      <c r="L56" t="n">
+        <v>8.385128865295393</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.7490396044402586</v>
+      </c>
+      <c r="N56" t="n">
+        <v>6.59566322350978</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +3040,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="D57" t="n">
-        <v>4736957344.990458</v>
+        <v>14316133625.56263</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001892700453050512</v>
+        <v>0.002277044999587436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.2305880231653638</v>
+        <v>0.06879585408740507</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.4517079307407462</v>
+        <v>0.01031754848808272</v>
       </c>
       <c r="I57" t="n">
-        <v>2.186356617619869</v>
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.2437467094955434</v>
+      </c>
+      <c r="L57" t="n">
+        <v>5.981576374731004</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.6577405993272846</v>
+      </c>
+      <c r="N57" t="n">
+        <v>7.173235611814688</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +3086,40 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>435</v>
+        <v>618</v>
       </c>
       <c r="D58" t="n">
-        <v>9285756634.22794</v>
+        <v>6840758926.579295</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003599858423189042</v>
+        <v>0.003210105022742737</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1227077873008178</v>
+        <v>0.236637928243653</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.08203730275927276</v>
+        <v>0.4154778819097569</v>
       </c>
       <c r="I58" t="n">
-        <v>2.280731723416411</v>
+        <v>8</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.4620020024359218</v>
+      </c>
+      <c r="L58" t="n">
+        <v>3.330916835053652</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.6187281332400684</v>
+      </c>
+      <c r="N58" t="n">
+        <v>9.043645829747716</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +3132,40 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>520</v>
+        <v>603</v>
       </c>
       <c r="D59" t="n">
-        <v>10165428801.37356</v>
+        <v>6552925537.923552</v>
       </c>
       <c r="E59" t="n">
-        <v>0.002381176626755057</v>
+        <v>0.001921373897318952</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1339916718334553</v>
+        <v>0.2410361846566166</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1207035204201982</v>
+        <v>0.4260949994811917</v>
       </c>
       <c r="I59" t="n">
-        <v>2.72639194523341</v>
+        <v>10</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.9846966958351416</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.3514770208986738</v>
+      </c>
+      <c r="L59" t="n">
+        <v>2.917512455854944</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.8670033325364731</v>
+      </c>
+      <c r="N59" t="n">
+        <v>14.42255419487452</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +3178,40 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>586</v>
+        <v>388</v>
       </c>
       <c r="D60" t="n">
-        <v>9529438741.153515</v>
+        <v>6027893767.98111</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004383659442112248</v>
+        <v>0.004442299867078091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.161075859942429</v>
+        <v>0.1686033893627146</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.2135122610238429</v>
+        <v>0.251246734292205</v>
       </c>
       <c r="I60" t="n">
-        <v>3.072433999820728</v>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.04139375179483476</v>
+      </c>
+      <c r="L60" t="n">
+        <v>8.1559102829575</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.6979701876319822</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5.803493469682143</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +3224,40 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D61" t="n">
-        <v>6195302623.671375</v>
+        <v>7182867343.933332</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00241419510991461</v>
+        <v>0.002019913043639493</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1708122466780943</v>
+        <v>0.1396693440047069</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.2468757049392152</v>
+        <v>0.1814017474292857</v>
       </c>
       <c r="I61" t="n">
-        <v>2.118196818989034</v>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.07974133220210222</v>
+      </c>
+      <c r="L61" t="n">
+        <v>8.194257863364767</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.6948668162597316</v>
+      </c>
+      <c r="N61" t="n">
+        <v>5.703078461829865</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +3270,40 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D62" t="n">
-        <v>5471697581.730896</v>
+        <v>13391678769.18628</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003758092146377222</v>
+        <v>0.003771226796759389</v>
       </c>
       <c r="F62" t="n">
-        <v>0.2752617862194698</v>
+        <v>0.1138382279231323</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.6047904477575103</v>
+        <v>0.1190470389518278</v>
       </c>
       <c r="I62" t="n">
-        <v>3.014760324056175</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.7127287748768524</v>
+      </c>
+      <c r="L62" t="n">
+        <v>8.827245306039517</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.7994271046161624</v>
+      </c>
+      <c r="N62" t="n">
+        <v>7.161296786283732</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +3316,40 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="D63" t="n">
-        <v>8661617910.327116</v>
+        <v>7529120580.928917</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001541526426544644</v>
+        <v>0.002427678262990123</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1696539613283985</v>
+        <v>0.2073491084675111</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.2429066361920775</v>
+        <v>0.344776491655356</v>
       </c>
       <c r="I63" t="n">
-        <v>2.941357463992198</v>
+        <v>8</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.986640121420842</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.485243373806051</v>
+      </c>
+      <c r="L63" t="n">
+        <v>3.354158206423781</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.8978298144011322</v>
+      </c>
+      <c r="N63" t="n">
+        <v>14.60243808159886</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +3362,40 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="D64" t="n">
-        <v>9377466286.225883</v>
+        <v>13480203687.93601</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001804699437831559</v>
+        <v>0.004610314179341419</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1458092770760897</v>
+        <v>0.0924933828051752</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1611986260924463</v>
+        <v>0.06752190969982146</v>
       </c>
       <c r="I64" t="n">
-        <v>2.736878068099692</v>
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.3847609455365925</v>
+      </c>
+      <c r="L64" t="n">
+        <v>8.499277476699257</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.7479905674191533</v>
+      </c>
+      <c r="N64" t="n">
+        <v>6.460533871683808</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +3408,40 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="D65" t="n">
-        <v>7244728638.16407</v>
+        <v>12135655623.6602</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00233644233676065</v>
+        <v>0.004978969050527762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1666782636466022</v>
+        <v>0.08266766964316836</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.2327098840076103</v>
+        <v>0.04380324892398743</v>
       </c>
       <c r="I65" t="n">
-        <v>2.417051320678081</v>
+        <v>3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.0515238373986573</v>
+      </c>
+      <c r="L65" t="n">
+        <v>4.73644214100909</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.6263228910211979</v>
+      </c>
+      <c r="N65" t="n">
+        <v>7.790015679414867</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +3454,40 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D66" t="n">
-        <v>11197395896.71381</v>
+        <v>9637957074.139677</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001461693853076115</v>
+        <v>0.004938173837721294</v>
       </c>
       <c r="F66" t="n">
-        <v>0.10994639390765</v>
+        <v>0.1263770258189</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.03830814076991388</v>
+        <v>0.1493149176210757</v>
       </c>
       <c r="I66" t="n">
-        <v>2.464238873576352</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.5605239361523563</v>
+      </c>
+      <c r="L66" t="n">
+        <v>8.67504046731502</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.7421585507931372</v>
+      </c>
+      <c r="N66" t="n">
+        <v>6.168130548547724</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +3500,40 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="D67" t="n">
-        <v>10078180937.09818</v>
+        <v>3485747850.164382</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004617733709396809</v>
+        <v>0.001302970660678709</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1192973233467448</v>
+        <v>0.2893109867233921</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.07035074737211768</v>
+        <v>0.5426273707567761</v>
       </c>
       <c r="I67" t="n">
-        <v>2.406565197811799</v>
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.1862495607038384</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3.253248525129397</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.3751519932731974</v>
+      </c>
+      <c r="N67" t="n">
+        <v>4.249791340334552</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +3546,40 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="D68" t="n">
-        <v>7533484362.779607</v>
+        <v>11678412447.17756</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004903775497223803</v>
+        <v>0.002442647305339544</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1550740512281299</v>
+        <v>0.1150624775480299</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.1929460064299486</v>
+        <v>0.1220023014431211</v>
       </c>
       <c r="I68" t="n">
-        <v>2.338405399180963</v>
+        <v>10</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.3100748008714284</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2.876110235827698</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.3159910735290296</v>
+      </c>
+      <c r="N68" t="n">
+        <v>3.443711234752894</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +3592,40 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="D69" t="n">
-        <v>8387489426.138148</v>
+        <v>13773924565.59231</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001009454970858385</v>
+        <v>0.001473085525823155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1698897116411733</v>
+        <v>0.08937999436089254</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2437144761589804</v>
+        <v>0.06000638353334627</v>
       </c>
       <c r="I69" t="n">
-        <v>2.852225419628798</v>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.08114164213517597</v>
+      </c>
+      <c r="L69" t="n">
+        <v>8.19565817329784</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.7448226805082117</v>
+      </c>
+      <c r="N69" t="n">
+        <v>6.700795436866393</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +3638,40 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="D70" t="n">
-        <v>5013181687.051815</v>
+        <v>5960751664.226556</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002152856045830613</v>
+        <v>0.002059327837050325</v>
       </c>
       <c r="F70" t="n">
-        <v>0.2649077597626423</v>
+        <v>0.1770941366900532</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.5693105525593007</v>
+        <v>0.2717428705288272</v>
       </c>
       <c r="I70" t="n">
-        <v>0.2955984903389008</v>
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.06589521834262357</v>
+      </c>
+      <c r="L70" t="n">
+        <v>8.180411749505287</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.7070922050925001</v>
+      </c>
+      <c r="N70" t="n">
+        <v>5.961432352344715</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +3684,40 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>417</v>
+        <v>573</v>
       </c>
       <c r="D71" t="n">
-        <v>6015073519.3769</v>
+        <v>6897689757.116508</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004135454195375603</v>
+        <v>0.002557261864882081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1815914014153479</v>
+        <v>0.2175961115751075</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.2838123770635997</v>
+        <v>0.3695121201711344</v>
       </c>
       <c r="I71" t="n">
-        <v>2.186356617619869</v>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.8781069843706988</v>
+      </c>
+      <c r="L71" t="n">
+        <v>8.992623515533364</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.7953542027790327</v>
+      </c>
+      <c r="N71" t="n">
+        <v>6.91446054004729</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +3730,40 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="D72" t="n">
-        <v>5915360013.359559</v>
+        <v>6108059650.875887</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00148032754405016</v>
+        <v>0.001994795644767385</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2067930146664508</v>
+        <v>0.2281437247915828</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.3701701433589842</v>
+        <v>0.3949734028028763</v>
       </c>
       <c r="I72" t="n">
-        <v>0.2452827410029388</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.3187506104630226</v>
+      </c>
+      <c r="L72" t="n">
+        <v>8.433267141625686</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.7761537970358509</v>
+      </c>
+      <c r="N72" t="n">
+        <v>7.089808799091331</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +3776,40 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="D73" t="n">
-        <v>9531609683.752211</v>
+        <v>3123905874.558509</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004150488471087899</v>
+        <v>0.003990783982156835</v>
       </c>
       <c r="F73" t="n">
-        <v>0.139878735516491</v>
+        <v>0.4787825722218274</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1408765809556542</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>2.668718269468857</v>
+        <v>6</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.4294444189926134</v>
+      </c>
+      <c r="L73" t="n">
+        <v>3.742181920780527</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.6573609202512186</v>
+      </c>
+      <c r="N73" t="n">
+        <v>9.405036484243844</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +3822,40 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="D74" t="n">
-        <v>4155142300.766789</v>
+        <v>4077859228.74417</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001253580176352478</v>
+        <v>0.00196962289377296</v>
       </c>
       <c r="F74" t="n">
-        <v>0.2855699237499106</v>
+        <v>0.2492296234347918</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.64011309646753</v>
+        <v>0.4458734513617683</v>
       </c>
       <c r="I74" t="n">
-        <v>2.375106829212951</v>
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.1692360377066197</v>
+      </c>
+      <c r="L74" t="n">
+        <v>4.854154341317052</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.6302687986166682</v>
+      </c>
+      <c r="N74" t="n">
+        <v>7.75122163101631</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +3868,40 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>568</v>
+        <v>396</v>
       </c>
       <c r="D75" t="n">
-        <v>8166519827.880385</v>
+        <v>11567595843.99902</v>
       </c>
       <c r="E75" t="n">
-        <v>0.002257239628741936</v>
+        <v>0.001746550265105777</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1821845230719486</v>
+        <v>0.08967104781224826</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2858448128801129</v>
+        <v>0.06070896847212052</v>
       </c>
       <c r="I75" t="n">
-        <v>2.978058894024187</v>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.1726936799116815</v>
+      </c>
+      <c r="L75" t="n">
+        <v>8.287210211074346</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.7028696264805195</v>
+      </c>
+      <c r="N75" t="n">
+        <v>5.770182318536046</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +3914,40 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>444</v>
+        <v>603</v>
       </c>
       <c r="D76" t="n">
-        <v>5280595817.291583</v>
+        <v>9748726912.135948</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001551751745503338</v>
+        <v>0.002500517279637018</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2202420333311</v>
+        <v>0.1620203524250668</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.4162555744451553</v>
+        <v>0.2353556923470153</v>
       </c>
       <c r="I76" t="n">
-        <v>0.279687129673597</v>
+        <v>8</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.2311353438507923</v>
+      </c>
+      <c r="L76" t="n">
+        <v>3.100050176468522</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.6061638335835858</v>
+      </c>
+      <c r="N76" t="n">
+        <v>9.023226495203193</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +3960,40 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>520</v>
+        <v>459</v>
       </c>
       <c r="D77" t="n">
-        <v>9052899431.868828</v>
+        <v>8676258182.594067</v>
       </c>
       <c r="E77" t="n">
-        <v>0.003583660996018748</v>
+        <v>0.001640206356068186</v>
       </c>
       <c r="F77" t="n">
-        <v>0.150458183066198</v>
+        <v>0.1385735630149875</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.1771289212296203</v>
+        <v>0.1787566002372978</v>
       </c>
       <c r="I77" t="n">
-        <v>0.3125335543650632</v>
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.1374391805008106</v>
+      </c>
+      <c r="L77" t="n">
+        <v>8.251955711663475</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.7389318496260264</v>
+      </c>
+      <c r="N77" t="n">
+        <v>6.526681280857053</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +4006,40 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D78" t="n">
-        <v>11608522620.22028</v>
+        <v>8068354428.332635</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002291478011280351</v>
+        <v>0.002681387335630043</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1078576887828161</v>
+        <v>0.1486896281833172</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.03115082479838641</v>
+        <v>0.2031761527072006</v>
       </c>
       <c r="I78" t="n">
-        <v>0.2499333898202158</v>
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0632872528968952</v>
+      </c>
+      <c r="L78" t="n">
+        <v>8.177803784059559</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.7383908591090392</v>
+      </c>
+      <c r="N78" t="n">
+        <v>6.590013398121226</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +4052,40 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>425</v>
+        <v>533</v>
       </c>
       <c r="D79" t="n">
-        <v>6291281571.707068</v>
+        <v>13428373810.27434</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003928845664380482</v>
+        <v>0.002286660564860322</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1769497577419563</v>
+        <v>0.1039690203538858</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.2679069675336895</v>
+        <v>0.0952233853806663</v>
       </c>
       <c r="I79" t="n">
-        <v>2.228301109084998</v>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.365173325936356</v>
+      </c>
+      <c r="L79" t="n">
+        <v>8.47968985709902</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.7766354153804131</v>
+      </c>
+      <c r="N79" t="n">
+        <v>7.053018450509244</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +4098,40 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>462</v>
+        <v>562</v>
       </c>
       <c r="D80" t="n">
-        <v>9233590903.001623</v>
+        <v>4101910372.946088</v>
       </c>
       <c r="E80" t="n">
-        <v>0.002232241306376718</v>
+        <v>0.00240263065359294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1310604068030138</v>
+        <v>0.3588808740700752</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.1106590245410457</v>
+        <v>0.7105647541285437</v>
       </c>
       <c r="I80" t="n">
-        <v>2.422294382111222</v>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.5219558866169458</v>
+      </c>
+      <c r="L80" t="n">
+        <v>8.63647241777961</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.7903091741294224</v>
+      </c>
+      <c r="N80" t="n">
+        <v>7.169711064808839</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +4144,40 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="D81" t="n">
-        <v>7401249600.73643</v>
+        <v>8500428232.156973</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001917182933926802</v>
+        <v>0.001780150818363885</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1500586279227081</v>
+        <v>0.1192532778719519</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1757597751610801</v>
+        <v>0.1321186329117328</v>
       </c>
       <c r="I81" t="n">
-        <v>2.223058047651858</v>
+        <v>7</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.2065796588510976</v>
+      </c>
+      <c r="L81" t="n">
+        <v>3.273578623276657</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.3803256922908572</v>
+      </c>
+      <c r="N81" t="n">
+        <v>4.332935222540486</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +4190,40 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="D82" t="n">
-        <v>8234133997.782091</v>
+        <v>8328571227.668195</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003206823848763001</v>
+        <v>0.003856824950587691</v>
       </c>
       <c r="F82" t="n">
-        <v>0.139333756325684</v>
+        <v>0.1559952366960486</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.1390091137770004</v>
+        <v>0.2208114375173193</v>
       </c>
       <c r="I82" t="n">
-        <v>0.2652265799563778</v>
+        <v>11</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.2941358521968019</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2.740754642106147</v>
+      </c>
+      <c r="M82" t="n">
+        <v>-0.3722541183410978</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-10.1858370089281</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +4236,40 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>437</v>
+        <v>568</v>
       </c>
       <c r="D83" t="n">
-        <v>8074679616.886856</v>
+        <v>5932121461.663758</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001812576781077812</v>
+        <v>0.001074467946424377</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1417608480225153</v>
+        <v>0.2508063143371173</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1473259709338833</v>
+        <v>0.4496794851879138</v>
       </c>
       <c r="I83" t="n">
-        <v>2.291217846282693</v>
+        <v>7</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.983739789567861</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.4409859250007502</v>
+      </c>
+      <c r="L83" t="n">
+        <v>3.507984889426309</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.8944999292310564</v>
+      </c>
+      <c r="N83" t="n">
+        <v>14.38201369519482</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +4282,40 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="D84" t="n">
-        <v>7986858200.913245</v>
+        <v>9103163869.391388</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001655168646819171</v>
+        <v>0.002189648524973373</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1725082761382264</v>
+        <v>0.1740857324702813</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.2526874485878786</v>
+        <v>0.2644807697541711</v>
       </c>
       <c r="I84" t="n">
-        <v>2.757850313832257</v>
+        <v>13</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.9865458366937487</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.3837043896096478</v>
+      </c>
+      <c r="L84" t="n">
+        <v>2.634266345664046</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.8105440874493272</v>
+      </c>
+      <c r="N84" t="n">
+        <v>13.5766154033225</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +4328,40 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D85" t="n">
-        <v>7903352646.865224</v>
+        <v>13991753656.99873</v>
       </c>
       <c r="E85" t="n">
-        <v>0.002764320414065716</v>
+        <v>0.002715974243362818</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1600795797087219</v>
+        <v>0.08986058723032832</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.2100983313388686</v>
+        <v>0.0611665048449991</v>
       </c>
       <c r="I85" t="n">
-        <v>2.532398672207187</v>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.09019599151185029</v>
+      </c>
+      <c r="L85" t="n">
+        <v>8.204712522674514</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.7500852245181984</v>
+      </c>
+      <c r="N85" t="n">
+        <v>6.796991967689452</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +4374,40 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="D86" t="n">
-        <v>7155862426.444721</v>
+        <v>4514850381.660145</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003747675497186098</v>
+        <v>0.001306615275381153</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1881487345291127</v>
+        <v>0.3417213372711352</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.3062822338508314</v>
+        <v>0.669142698986709</v>
       </c>
       <c r="I86" t="n">
-        <v>2.694933576634563</v>
+        <v>10</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.9833620314907532</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.4290649507672342</v>
+      </c>
+      <c r="L86" t="n">
+        <v>2.995100385723504</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.8559920285294534</v>
+      </c>
+      <c r="N86" t="n">
+        <v>14.12474018486557</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +4420,40 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>415</v>
+        <v>594</v>
       </c>
       <c r="D87" t="n">
-        <v>8584580800.33454</v>
+        <v>12082108868.01695</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00213187991332115</v>
+        <v>0.001730716117933279</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1266278313738555</v>
+        <v>0.1287786492405092</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.0954700241709539</v>
+        <v>0.1551122872683707</v>
       </c>
       <c r="I87" t="n">
-        <v>2.175870494753587</v>
+        <v>10</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.9832346908737156</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.2744080797971826</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2.840443514753453</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.8596868558201691</v>
+      </c>
+      <c r="N87" t="n">
+        <v>14.35329360164993</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +4466,40 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D88" t="n">
-        <v>6271020981.28217</v>
+        <v>13626688256.49417</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004376081163326431</v>
+        <v>0.003298927118167436</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1875461927986619</v>
+        <v>0.08496344513115522</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.3042175184922142</v>
+        <v>0.04934510823935884</v>
       </c>
       <c r="I88" t="n">
-        <v>2.354134583480387</v>
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.2480176285071592</v>
+      </c>
+      <c r="L88" t="n">
+        <v>8.362534159669824</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.729606327308191</v>
+      </c>
+      <c r="N88" t="n">
+        <v>6.229592386493994</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +4512,40 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="D89" t="n">
-        <v>8452472848.852738</v>
+        <v>7105571403.612359</v>
       </c>
       <c r="E89" t="n">
-        <v>0.002511555927821913</v>
+        <v>0.001280075440552624</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1577372129838862</v>
+        <v>0.2130732820769773</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2020717992202316</v>
+        <v>0.3585942909159627</v>
       </c>
       <c r="I89" t="n">
-        <v>0.3059001279558498</v>
+        <v>5</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.9802528665826136</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.2803089264121372</v>
+      </c>
+      <c r="L89" t="n">
+        <v>3.909231040057238</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.9318943936698014</v>
+      </c>
+      <c r="N89" t="n">
+        <v>14.72865683333879</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +4558,40 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D90" t="n">
-        <v>3747983147.560741</v>
+        <v>7017342621.807491</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00104923938025695</v>
+        <v>0.003534428900257333</v>
       </c>
       <c r="F90" t="n">
-        <v>0.3186892237702204</v>
+        <v>0.1608809988116569</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.7536022109350521</v>
+        <v>0.2326053635500496</v>
       </c>
       <c r="I90" t="n">
-        <v>2.390836013512375</v>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.5156608453688063</v>
+      </c>
+      <c r="L90" t="n">
+        <v>8.630177376531471</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.7234207221580239</v>
+      </c>
+      <c r="N90" t="n">
+        <v>5.838237066629008</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +4604,40 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D91" t="n">
-        <v>9698521990.921919</v>
+        <v>6378922147.318594</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001304259300510288</v>
+        <v>0.001962726968511287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.129909133698859</v>
+        <v>0.1864269593727345</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.1067139844882465</v>
+        <v>0.2942717243271926</v>
       </c>
       <c r="I91" t="n">
-        <v>2.521912549340904</v>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0377877268563677</v>
+      </c>
+      <c r="L91" t="n">
+        <v>8.152304258019031</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.7362175939778605</v>
+      </c>
+      <c r="N91" t="n">
+        <v>6.572047621538179</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +4650,40 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>549</v>
+        <v>379</v>
       </c>
       <c r="D92" t="n">
-        <v>5122339479.186838</v>
+        <v>12667251517.85626</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004153207347415489</v>
+        <v>0.002117266920926892</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2807399071933996</v>
+        <v>0.0783712874573132</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.6235621940775111</v>
+        <v>0.03343204940396993</v>
       </c>
       <c r="I92" t="n">
-        <v>2.878440726794504</v>
+        <v>6</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.128864271289646</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3.441601773077559</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.4619795295105681</v>
+      </c>
+      <c r="N92" t="n">
+        <v>5.797988817133803</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +4696,40 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="D93" t="n">
-        <v>6350670408.359399</v>
+        <v>4132123544.820175</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003862009272679614</v>
+        <v>0.001482920202852919</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1983926906900343</v>
+        <v>0.2510279348496927</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.3413849537946159</v>
+        <v>0.4502144633286423</v>
       </c>
       <c r="I93" t="n">
-        <v>0.2976842210535379</v>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.4213698921071654</v>
+      </c>
+      <c r="L93" t="n">
+        <v>8.535886423269829</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.7028696264805195</v>
+      </c>
+      <c r="N93" t="n">
+        <v>5.521506106340562</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +4742,40 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="D94" t="n">
-        <v>9095002024.796501</v>
+        <v>9021551128.767902</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004689348671871648</v>
+        <v>0.001073756052684995</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1307534684168042</v>
+        <v>0.148658214187072</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.109607246102925</v>
+        <v>0.2031003212730577</v>
       </c>
       <c r="I94" t="n">
-        <v>2.380349890646093</v>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.4811734120426803</v>
+      </c>
+      <c r="L94" t="n">
+        <v>8.595689943205345</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.766371417104613</v>
+      </c>
+      <c r="N94" t="n">
+        <v>6.731738398886915</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +4788,40 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>583</v>
+        <v>504</v>
       </c>
       <c r="D95" t="n">
-        <v>9634513525.831364</v>
+        <v>7238472859.802647</v>
       </c>
       <c r="E95" t="n">
-        <v>0.001191019939142208</v>
+        <v>0.002183530205805787</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1585035265045441</v>
+        <v>0.1823827464120649</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.2046977074613664</v>
+        <v>0.2845092456411403</v>
       </c>
       <c r="I95" t="n">
-        <v>3.056704815521304</v>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.4677559338858057</v>
+      </c>
+      <c r="L95" t="n">
+        <v>8.582272465048471</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.7623756128188893</v>
+      </c>
+      <c r="N95" t="n">
+        <v>6.665239791329316</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +4834,40 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D96" t="n">
-        <v>6305746030.857047</v>
+        <v>11771847720.52258</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002045385215249732</v>
+        <v>0.003703972865183998</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2471614052283947</v>
+        <v>0.128612555644985</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.5084995432721662</v>
+        <v>0.1547113476536759</v>
       </c>
       <c r="I96" t="n">
-        <v>3.119621552718998</v>
+        <v>8</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.982711344473114</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.2501862112839649</v>
+      </c>
+      <c r="L96" t="n">
+        <v>3.119101043901695</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.8838314165807574</v>
+      </c>
+      <c r="N96" t="n">
+        <v>14.55752728771345</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +4880,40 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D97" t="n">
-        <v>10435105542.21393</v>
+        <v>10384940591.67266</v>
       </c>
       <c r="E97" t="n">
-        <v>0.003263687175329887</v>
+        <v>0.001835714537144573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1503592468377771</v>
+        <v>0.1462932008699437</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.1767898988183568</v>
+        <v>0.1973913261421802</v>
       </c>
       <c r="I97" t="n">
-        <v>3.140593798451563</v>
+        <v>15</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.9876298035049738</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.3784746106762062</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2.473633769857391</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.7401608208363644</v>
+      </c>
+      <c r="N97" t="n">
+        <v>12.3295826468699</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +4926,40 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="D98" t="n">
-        <v>9253053704.491783</v>
+        <v>5758361996.415733</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001715347788404721</v>
+        <v>0.001755445146982878</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1154982078490701</v>
+        <v>0.1924161715935314</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.05733240902177402</v>
+        <v>0.3087293103199173</v>
       </c>
       <c r="I98" t="n">
-        <v>0.1527671504007052</v>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.1270455696404666</v>
+      </c>
+      <c r="L98" t="n">
+        <v>8.241562100803131</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.7188433583060841</v>
+      </c>
+      <c r="N98" t="n">
+        <v>6.135305065318551</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +4972,40 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>533</v>
+        <v>417</v>
       </c>
       <c r="D99" t="n">
-        <v>5938180784.486637</v>
+        <v>14808954599.59527</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004233064340437886</v>
+        <v>0.004987218711569141</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2351115468978935</v>
+        <v>0.07375845625388389</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.4672085814900916</v>
+        <v>0.0222969616269952</v>
       </c>
       <c r="I99" t="n">
-        <v>0.1813224524817544</v>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.1941517126041738</v>
+      </c>
+      <c r="L99" t="n">
+        <v>8.308668243766839</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.7153651671407669</v>
+      </c>
+      <c r="N99" t="n">
+        <v>5.998635099048499</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +5018,40 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="D100" t="n">
-        <v>5099703232.859431</v>
+        <v>3701196148.870461</v>
       </c>
       <c r="E100" t="n">
-        <v>0.001900736546156981</v>
+        <v>0.002270177291117059</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2285679179308686</v>
+        <v>0.3552726543285998</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.4447856843752289</v>
+        <v>0.7018547359709159</v>
       </c>
       <c r="I100" t="n">
-        <v>2.333162337747822</v>
+        <v>7</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.2413480853146142</v>
+      </c>
+      <c r="L100" t="n">
+        <v>3.308347049740173</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.556950414565362</v>
+      </c>
+      <c r="N100" t="n">
+        <v>7.830661241567067</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +5064,40 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="D101" t="n">
-        <v>4925288890.253823</v>
+        <v>9398281129.980587</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004566768039588344</v>
+        <v>0.003169170035935485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3451541925518184</v>
+        <v>0.1683405229231814</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.8442890874569697</v>
+        <v>0.2506121910477768</v>
       </c>
       <c r="I101" t="n">
-        <v>3.402746870108622</v>
+        <v>8</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.368669778590096</v>
+      </c>
+      <c r="L101" t="n">
+        <v>3.237584611207826</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.6070204826358012</v>
+      </c>
+      <c r="N101" t="n">
+        <v>8.902825041508198</v>
       </c>
     </row>
   </sheetData>
